--- a/input/iconen/iconen.xlsx
+++ b/input/iconen/iconen.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Ben\Work\iMinds\Projects\2019 09 iLearn\soft\conceptschemes\input\iconen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF7DA3-59C2-4E9A-B013-B3589DDD5584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="210">
   <si>
     <t>prefLabel</t>
   </si>
@@ -643,12 +642,30 @@
   </si>
   <si>
     <t>extra-curriculair.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-bulo</t>
+  </si>
+  <si>
+    <t>buitengewoon lager onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoonlager.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/buso</t>
+  </si>
+  <si>
+    <t>buitengewoon secundair onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoonsecundair.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,8 +694,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E64582-AE55-452B-9F0F-518C36A11EA7}">
-  <dimension ref="A1:D83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,789 +1392,820 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>105</v>
+      <c r="A41" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>128</v>
+      <c r="A53" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
         <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
         <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
         <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D85">
+    <sortCondition ref="A2:A85"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/iconen/iconen.xlsx
+++ b/input/iconen/iconen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-workingcopies\i-learn\conceptschemes\input\iconen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="obsolete_sec_gr3_lj3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="208">
   <si>
     <t>prefLabel</t>
   </si>
@@ -462,12 +463,6 @@
   </si>
   <si>
     <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-arbeidsmarkt-bso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-arbeidsmarkt-kso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-arbeidsmarkt-tso</t>
   </si>
   <si>
     <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-doorstroom</t>
@@ -999,11 +994,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1014,7 +1007,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1023,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1268,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,7 +1296,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,7 +1338,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,21 +1380,21 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,7 +1408,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +1422,7 @@
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1436,7 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,7 +1464,7 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,7 +1478,7 @@
         <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,7 +1492,7 @@
         <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1506,7 @@
         <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,7 +1520,7 @@
         <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,7 +1534,7 @@
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1548,7 @@
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,21 +1562,21 @@
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
         <v>204</v>
-      </c>
-      <c r="B41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,7 +1590,7 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1604,7 @@
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,7 +1618,7 @@
         <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,7 +1632,7 @@
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1646,7 @@
         <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1660,7 @@
         <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +1674,7 @@
         <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1688,7 @@
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +1702,7 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,7 +1716,7 @@
         <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,21 +1730,21 @@
         <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
         <v>207</v>
-      </c>
-      <c r="B53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1758,7 @@
         <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,7 +1772,7 @@
         <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,7 +1800,7 @@
         <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1814,7 @@
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1828,7 @@
         <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1842,7 @@
         <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +1856,7 @@
         <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1870,7 @@
         <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,7 +1884,7 @@
         <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1898,7 @@
         <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,7 +1912,7 @@
         <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,7 +1926,7 @@
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,7 +1940,7 @@
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,7 +1954,7 @@
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,7 +1968,7 @@
         <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +1982,7 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,7 +1996,7 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,7 +2010,7 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,7 +2024,7 @@
         <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,7 +2038,7 @@
         <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,7 +2052,7 @@
         <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,7 +2066,7 @@
         <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,119 +2080,7 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2208,4 +2089,120 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/iconen/iconen.xlsx
+++ b/input/iconen/iconen.xlsx
@@ -1,273 +1,383 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-workingcopies\i-learn\conceptschemes\input\iconen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="obsolete_sec_gr3_lj3" sheetId="4" r:id="rId2"/>
+    <sheet sheetId="3" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="4" name="obsolete_sec_gr3_lj3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="208">
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>prefLabel</t>
   </si>
   <si>
     <t>memberOf</t>
   </si>
   <si>
+    <t>bestandslink</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-andere-talen</t>
+  </si>
+  <si>
+    <t>andere talen</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/elem/sleutelcompetenties</t>
+  </si>
+  <si>
+    <t>talen.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-burgerschap-en-samenleven</t>
+  </si>
+  <si>
+    <t>burgerschap en samenleven</t>
+  </si>
+  <si>
+    <t>burgerschap.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-cultureel-bewustzijn-en-culturele-expressie</t>
+  </si>
+  <si>
+    <t>cultureel bewustzijn en culturele expressie</t>
+  </si>
+  <si>
+    <t>cultureel.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-digitale-competenties-en-mediawijsheid</t>
+  </si>
+  <si>
+    <t>digitale competenties en mediawijsheid</t>
+  </si>
+  <si>
+    <t>digitaal.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-duurzaamheid</t>
+  </si>
+  <si>
+    <t>duurzaamheid</t>
+  </si>
+  <si>
+    <t>duurzaamheid.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-economisch-financiele-competenties</t>
+  </si>
+  <si>
+    <t>economisch-financiële competenties</t>
+  </si>
+  <si>
+    <t>economisch.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-historisch-bewustzijn</t>
+  </si>
+  <si>
+    <t>historisch bewustzijn</t>
+  </si>
+  <si>
+    <t>historisch-bewustzijn.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-juridische-competenties</t>
+  </si>
+  <si>
+    <t>juridische competenties</t>
+  </si>
+  <si>
+    <t>juridische-competenties.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-leercompetenties</t>
+  </si>
+  <si>
+    <t>leercompetenties</t>
+  </si>
+  <si>
+    <t>leercompetenties.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-lichamelijk-geestelijk-en-emotioneel-welzijn</t>
+  </si>
+  <si>
+    <t>lichamelijk, geestelijk en emotioneel welzijn</t>
+  </si>
+  <si>
+    <t>lichaamgeest.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-nederlands</t>
+  </si>
+  <si>
+    <t>Nederlands</t>
+  </si>
+  <si>
+    <t>nederlandscomp.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-ondernemingszin</t>
+  </si>
+  <si>
+    <t>ondernemingszin</t>
+  </si>
+  <si>
+    <t>ondernemingszin.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-religie-en-levensbeschouwing</t>
+  </si>
+  <si>
+    <t>religie en levenbeschouwing</t>
+  </si>
+  <si>
+    <t>religie-en-levensbeschouwing.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-ruimtelijk-bewustzijn</t>
+  </si>
+  <si>
+    <t>ruimtelijk bewustzijn</t>
+  </si>
+  <si>
+    <t>ruimtelijk-bewustzijn.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-sociaal-relationele-vorming</t>
+  </si>
+  <si>
+    <t>sociaal-relationele vorming</t>
+  </si>
+  <si>
+    <t>sociaal-relationele-vorming.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-stem</t>
+  </si>
+  <si>
+    <t>STEM (sleutelcompetentie)</t>
+  </si>
+  <si>
+    <t>stem.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-zelfbewustzijn</t>
+  </si>
+  <si>
+    <t>zelfbewustzijn</t>
+  </si>
+  <si>
+    <t>zelfbewustzijn.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-bouwen-en-wonen</t>
+  </si>
+  <si>
+    <t>bouwen en wonen</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/elem/studiedomeinen</t>
+  </si>
+  <si>
+    <t>bouwen-en-wonen.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-economie-en-organisatie</t>
+  </si>
+  <si>
+    <t>economie en organisatie</t>
+  </si>
+  <si>
+    <t>economie-en-organisatie.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-kunst-en-cultuur</t>
+  </si>
+  <si>
+    <t>kunst en cultuur</t>
+  </si>
+  <si>
+    <t>kunst-en-cultuur.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-land-en-tuinbouw</t>
+  </si>
+  <si>
+    <t>land- en tuinbouw</t>
+  </si>
+  <si>
+    <t>land-en-tuinbouw.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-niet-bepaald</t>
+  </si>
+  <si>
+    <t>niet bepaald studiedomein</t>
+  </si>
+  <si>
+    <t>niet-bepaald.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-sport-en-ontspanning</t>
+  </si>
+  <si>
     <t>sport en ontspanning</t>
   </si>
   <si>
+    <t>sport-en-ontspanning.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-stem</t>
+  </si>
+  <si>
+    <t>STEM (studiedomein)</t>
+  </si>
+  <si>
+    <t>stem_dom.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-voeding-en-horeca</t>
+  </si>
+  <si>
+    <t>voeding en horeca</t>
+  </si>
+  <si>
+    <t>voeding-en-horeca.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-zorg-en-welzijn</t>
+  </si>
+  <si>
+    <t>zorg en welzijn</t>
+  </si>
+  <si>
+    <t>zorg-en-welzijn.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-extra-curriculair</t>
+  </si>
+  <si>
+    <t>extra curriculair</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/elem/leergebieden</t>
+  </si>
+  <si>
+    <t>extra-curriculair.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-frans</t>
+  </si>
+  <si>
+    <t>Frans</t>
+  </si>
+  <si>
+    <t>frans.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-ict</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>ict.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-leren-leren</t>
+  </si>
+  <si>
     <t>leren leren</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-andere-talen</t>
-  </si>
-  <si>
-    <t>andere talen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/elem/sleutelcompetenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-burgerschap-en-samenleven</t>
-  </si>
-  <si>
-    <t>burgerschap en samenleven</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-cultureel-bewustzijn-en-culturele-expressie</t>
-  </si>
-  <si>
-    <t>cultureel bewustzijn en culturele expressie</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-digitale-competenties-en-mediawijsheid</t>
-  </si>
-  <si>
-    <t>digitale competenties en mediawijsheid</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-duurzaamheid</t>
-  </si>
-  <si>
-    <t>duurzaamheid</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-economisch-financiele-competenties</t>
-  </si>
-  <si>
-    <t>economisch-financiële competenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-historisch-bewustzijn</t>
-  </si>
-  <si>
-    <t>historisch bewustzijn</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-juridische-competenties</t>
-  </si>
-  <si>
-    <t>juridische competenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-leercompetenties</t>
-  </si>
-  <si>
-    <t>leercompetenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-lichamelijk-geestelijk-en-emotioneel-welzijn</t>
-  </si>
-  <si>
-    <t>lichamelijk, geestelijk en emotioneel welzijn</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-nederlands</t>
-  </si>
-  <si>
-    <t>Nederlands</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-ondernemingszin</t>
-  </si>
-  <si>
-    <t>ondernemingszin</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-religie-en-levensbeschouwing</t>
-  </si>
-  <si>
-    <t>religie en levenbeschouwing</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-ruimtelijk-bewustzijn</t>
-  </si>
-  <si>
-    <t>ruimtelijk bewustzijn</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-sociaal-relationele-vorming</t>
-  </si>
-  <si>
-    <t>sociaal-relationele vorming</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-stem</t>
-  </si>
-  <si>
-    <t>STEM (sleutelcompetentie)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-zelfbewustzijn</t>
-  </si>
-  <si>
-    <t>zelfbewustzijn</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-bouwen-en-wonen</t>
-  </si>
-  <si>
-    <t>bouwen en wonen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/elem/studiedomeinen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-economie-en-organisatie</t>
-  </si>
-  <si>
-    <t>economie en organisatie</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-kunst-en-cultuur</t>
-  </si>
-  <si>
-    <t>kunst en cultuur</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-land-en-tuinbouw</t>
-  </si>
-  <si>
-    <t>land- en tuinbouw</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-niet-bepaald</t>
-  </si>
-  <si>
-    <t>niet bepaald studiedomein</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-sport-en-ontspanning</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-stem</t>
-  </si>
-  <si>
-    <t>STEM (studiedomein)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-voeding-en-horeca</t>
-  </si>
-  <si>
-    <t>voeding en horeca</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/d-zorg-en-welzijn</t>
-  </si>
-  <si>
-    <t>zorg en welzijn</t>
+    <t>leren-leren.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-levensbeschouwelijke-vakken</t>
+  </si>
+  <si>
+    <t>levensbeschouwelijke vakken</t>
+  </si>
+  <si>
+    <t>levensbeschouwelijke-vakken.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-lichamelijke-opvoeding</t>
+  </si>
+  <si>
+    <t>lichamelijke opvoeding</t>
+  </si>
+  <si>
+    <t>lichamelijke-opvoeding.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-mens-en-maatschappij</t>
+  </si>
+  <si>
+    <t>mens en maatschappij</t>
+  </si>
+  <si>
+    <t>mens-en-maatschappij.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-muzische-vorming</t>
+  </si>
+  <si>
+    <t>muzische vorming</t>
+  </si>
+  <si>
+    <t>muzische-vorming.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-nederlands</t>
+  </si>
+  <si>
+    <t>nederlands.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-sociale-vaardigheden</t>
+  </si>
+  <si>
+    <t>sociale vaardigheden</t>
+  </si>
+  <si>
+    <t>sociale-vaardigheden.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-wetenschap-en-techniek</t>
+  </si>
+  <si>
+    <t>wetenschap en techniek</t>
+  </si>
+  <si>
+    <t>wetenschap-en-techniek.svg</t>
+  </si>
+  <si>
+    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-wiskunde</t>
   </si>
   <si>
     <t>wiskunde</t>
   </si>
   <si>
-    <t>Frans</t>
-  </si>
-  <si>
-    <t>lichamelijke opvoeding</t>
-  </si>
-  <si>
-    <t>ICT</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-frans</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/elem/leergebieden</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-levensbeschouwelijke-vakken</t>
-  </si>
-  <si>
-    <t>levensbeschouwelijke vakken</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-lichamelijke-opvoeding</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-mens-en-maatschappij</t>
-  </si>
-  <si>
-    <t>mens en maatschappij</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-muzische-vorming</t>
-  </si>
-  <si>
-    <t>muzische vorming</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-nederlands</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-wetenschap-en-techniek</t>
-  </si>
-  <si>
-    <t>wetenschap en techniek</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-wiskunde</t>
-  </si>
-  <si>
-    <t>sociale vaardigheden</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-ict</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-leren-leren</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-sociale-vaardigheden</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis</t>
+    <t>wiskunde.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/basisonderwijs</t>
   </si>
   <si>
     <t>basisonderwijs</t>
@@ -276,181 +386,235 @@
     <t>http://ilearn.ilabt.imec.be/vocab/elem/ondniv</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-kleuter</t>
+    <t>logo-i-learn.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/buitengewoon-lager-onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoon lager onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoonlager.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/kleuteronderwijs</t>
   </si>
   <si>
     <t>kleuteronderwijs</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-kleuter-3j</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/kleuter-3-jaar-of-jonger</t>
   </si>
   <si>
     <t>3 jaar of jonger</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-kleuter-4j</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/kleuter-4-jaar</t>
   </si>
   <si>
     <t>4 jaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-kleuter-5j</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/kleuter-5-jaar</t>
   </si>
   <si>
     <t>5 jaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-onderwijs</t>
   </si>
   <si>
     <t>lager onderwijs</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj1</t>
+    <t>leerjaar.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-1e-leerjaar</t>
   </si>
   <si>
     <t>1ste leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj2</t>
+    <t>leerjaar1.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-2e-leerjaar</t>
   </si>
   <si>
     <t>2e leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj3</t>
+    <t>leerjaar2.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-3e-leerjaar</t>
   </si>
   <si>
     <t>3e leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj4</t>
+    <t>leerjaar3.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-4e-leerjaar</t>
   </si>
   <si>
     <t>4e leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj5</t>
+    <t>leerjaar4.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-5e-leerjaar</t>
   </si>
   <si>
     <t>5e leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-lager-lj6</t>
+    <t>leerjaar5.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/lager-6e-leerjaar</t>
   </si>
   <si>
     <t>6e leerjaar</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec</t>
+    <t>leerjaar6.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/buitengewoon-secundair-onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoon secundair onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoonsecundair.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-onderwijs</t>
   </si>
   <si>
     <t>secundair onderwijs</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr1</t>
+    <t>secundair.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-1e-graad</t>
   </si>
   <si>
     <t>1ste graad</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr1-astroom</t>
+    <t>secundair1.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-1e-graad-a-stroom</t>
   </si>
   <si>
     <t>a-stroom</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr1-bstroom</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-1e-graad-b-stroom</t>
   </si>
   <si>
     <t>b-stroom</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad</t>
   </si>
   <si>
     <t>2e graad</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-arbeidsmarkt</t>
+    <t>secundair2.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-arbeidsmarkt</t>
   </si>
   <si>
     <t>finaliteit arbeidsmarkt</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-arbeidsmarkt-bso</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-arbeidsmarkt-bso</t>
   </si>
   <si>
     <t>bso</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-doorstroom</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-doorstroom</t>
   </si>
   <si>
     <t>finaliteit doorstroom</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-doorstroom-aso</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-doorstroom-aso</t>
   </si>
   <si>
     <t>aso</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-doorstroom-kso</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-doorstroom-kso</t>
   </si>
   <si>
     <t>kso</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-doorstroom-tso</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-doorstroom-tso</t>
   </si>
   <si>
     <t>tso</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-dubbel</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-dubbel</t>
   </si>
   <si>
     <t>dubbele finaliteit</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-dubbel-kso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr2-dubbel-tso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3</t>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-dubbel-kso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-2e-graad-dubbel-tso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad</t>
   </si>
   <si>
     <t>3e graad</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-arbeidsmarkt</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-arbeidsmarkt-bso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-doorstroom</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-doorstroom-aso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-doorstroom-kso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-doorstroom-tso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-dubbel</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-dubbel-kso</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3-dubbel-tso</t>
+    <t>secundair3.svg</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-arbeidsmarkt</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-arbeidsmarkt-bso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-doorstroom</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-doorstroom-aso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-doorstroom-kso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-doorstroom-tso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-dubbel</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-dubbel-kso</t>
+  </si>
+  <si>
+    <t>https://w3id.org/onderwijs-vlaanderen/id/structuur/secundair-3e-graad-dubbel-tso</t>
   </si>
   <si>
     <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3</t>
@@ -459,6 +623,9 @@
     <t>3e graad - 3e leerjaar</t>
   </si>
   <si>
+    <t>secundair3_3.svg</t>
+  </si>
+  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-arbeidsmarkt</t>
   </si>
   <si>
@@ -472,201 +639,25 @@
   </si>
   <si>
     <t>http://ilearn.ilabt.imec.be/vocab/ondniv/sec-gr3lj3-doorstroom-kso</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>bestandslink</t>
-  </si>
-  <si>
-    <t>logo-i-learn.svg</t>
-  </si>
-  <si>
-    <t>leerjaar1.svg</t>
-  </si>
-  <si>
-    <t>leerjaar2.svg</t>
-  </si>
-  <si>
-    <t>leerjaar3.svg</t>
-  </si>
-  <si>
-    <t>leerjaar4.svg</t>
-  </si>
-  <si>
-    <t>leerjaar5.svg</t>
-  </si>
-  <si>
-    <t>leerjaar6.svg</t>
-  </si>
-  <si>
-    <t>secundair1.svg</t>
-  </si>
-  <si>
-    <t>secundair2.svg</t>
-  </si>
-  <si>
-    <t>secundair3.svg</t>
-  </si>
-  <si>
-    <t>secundair3_3.svg</t>
-  </si>
-  <si>
-    <t>frans.svg</t>
-  </si>
-  <si>
-    <t>ict.svg</t>
-  </si>
-  <si>
-    <t>wiskunde.svg</t>
-  </si>
-  <si>
-    <t>leren-leren.svg</t>
-  </si>
-  <si>
-    <t>sociale-vaardigheden.svg</t>
-  </si>
-  <si>
-    <t>lichamelijke-opvoeding.svg</t>
-  </si>
-  <si>
-    <t>mens-en-maatschappij.svg</t>
-  </si>
-  <si>
-    <t>muzische-vorming.svg</t>
-  </si>
-  <si>
-    <t>nederlands.svg</t>
-  </si>
-  <si>
-    <t>wetenschap-en-techniek.svg</t>
-  </si>
-  <si>
-    <t>levensbeschouwelijke-vakken.svg</t>
-  </si>
-  <si>
-    <t>talen.svg</t>
-  </si>
-  <si>
-    <t>burgerschap.svg</t>
-  </si>
-  <si>
-    <t>cultureel.svg</t>
-  </si>
-  <si>
-    <t>digitaal.svg</t>
-  </si>
-  <si>
-    <t>duurzaamheid.svg</t>
-  </si>
-  <si>
-    <t>economisch.svg</t>
-  </si>
-  <si>
-    <t>historisch-bewustzijn.svg</t>
-  </si>
-  <si>
-    <t>juridische-competenties.svg</t>
-  </si>
-  <si>
-    <t>leercompetenties.svg</t>
-  </si>
-  <si>
-    <t>lichaamgeest.svg</t>
-  </si>
-  <si>
-    <t>nederlandscomp.svg</t>
-  </si>
-  <si>
-    <t>ondernemingszin.svg</t>
-  </si>
-  <si>
-    <t>zelfbewustzijn.svg</t>
-  </si>
-  <si>
-    <t>sociaal-relationele-vorming.svg</t>
-  </si>
-  <si>
-    <t>ruimtelijk-bewustzijn.svg</t>
-  </si>
-  <si>
-    <t>stem.svg</t>
-  </si>
-  <si>
-    <t>religie-en-levensbeschouwing.svg</t>
-  </si>
-  <si>
-    <t>leerjaar.svg</t>
-  </si>
-  <si>
-    <t>secundair.svg</t>
-  </si>
-  <si>
-    <t>bouwen-en-wonen.svg</t>
-  </si>
-  <si>
-    <t>economie-en-organisatie.svg</t>
-  </si>
-  <si>
-    <t>kunst-en-cultuur.svg</t>
-  </si>
-  <si>
-    <t>land-en-tuinbouw.svg</t>
-  </si>
-  <si>
-    <t>niet-bepaald.svg</t>
-  </si>
-  <si>
-    <t>sport-en-ontspanning.svg</t>
-  </si>
-  <si>
-    <t>voeding-en-horeca.svg</t>
-  </si>
-  <si>
-    <t>zorg-en-welzijn.svg</t>
-  </si>
-  <si>
-    <t>stem_dom.svg</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr2/l-extra-curriculair</t>
-  </si>
-  <si>
-    <t>extra curriculair</t>
-  </si>
-  <si>
-    <t>extra-curriculair.svg</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/basis-bulo</t>
-  </si>
-  <si>
-    <t>buitengewoon lager onderwijs</t>
-  </si>
-  <si>
-    <t>buitengewoonlager.svg</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/ondniv/buso</t>
-  </si>
-  <si>
-    <t>buitengewoon secundair onderwijs</t>
-  </si>
-  <si>
-    <t>buitengewoonsecundair.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,11 +678,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,31 +983,31 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,704 +1021,704 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
@@ -1735,471 +1726,468 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D85">
-    <sortCondition ref="A2:A85"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
